--- a/data/dogweights_07sept2020.xlsx
+++ b/data/dogweights_07sept2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stellali/Desktop/Columbia/Fall 2020/Data Science/p8105_mtp_cl4043/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA7EA19-99BF-D840-B1C8-22B0912198BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8AA253-5BFE-5143-B6C3-21421F744051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32580" windowHeight="19900" xr2:uid="{FE2855BC-C88C-48CF-83B3-51C705CCE195}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{FE2855BC-C88C-48CF-83B3-51C705CCE195}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="125">
   <si>
     <t>Raisin</t>
   </si>
@@ -108,13 +108,7 @@
     <t>10 15</t>
   </si>
   <si>
-    <t>Weight (Lbs Oz)</t>
-  </si>
-  <si>
     <t>Right after leaving for 3 days at Weber's</t>
-  </si>
-  <si>
-    <t>notes</t>
   </si>
   <si>
     <t>at camp bow wow</t>
@@ -462,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -583,9 +577,6 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -901,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4341A93A-3D10-4622-B1DA-E7E06FAD8F84}">
-  <dimension ref="B1:G207"/>
+  <dimension ref="B1:G206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -917,260 +908,266 @@
     <col min="7" max="7" width="23.83203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B1" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5" t="s">
-        <v>29</v>
-      </c>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="5"/>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="2">
+        <v>43324</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
-        <v>43324</v>
+        <v>43331</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
-        <v>43331</v>
+        <v>43334</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
-        <v>43334</v>
+        <v>43336</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
-        <v>43336</v>
+        <v>43339</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="2:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="G6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
-        <v>43339</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>28</v>
-      </c>
+        <v>43340</v>
+      </c>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="4"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
-        <v>43340</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="4"/>
+        <v>43341</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
-        <v>43341</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>43342</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
-        <v>43342</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+        <v>43343</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
-        <v>43343</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>43344</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
-        <v>43344</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+        <v>43345</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
-        <v>43345</v>
+        <v>43346</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
-        <v>43346</v>
+        <v>43347</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G14" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
-        <v>43347</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3" t="s">
+        <v>43348</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="G15" s="5"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
-        <v>43348</v>
+        <v>43349</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>13</v>
@@ -1179,88 +1176,88 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
-        <v>43349</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>43350</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>18</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
-        <v>43350</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F18" s="9" t="s">
+        <v>43351</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
-        <v>43351</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>34</v>
+        <v>43352</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="11" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
-        <v>43352</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>31</v>
+        <v>43353</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="5"/>
+      <c r="G20" s="12"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
-        <v>43353</v>
+        <v>43354</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>13</v>
@@ -1269,13 +1266,13 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
-        <v>43354</v>
+        <v>43355</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>21</v>
@@ -1287,13 +1284,13 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
-        <v>43355</v>
+        <v>43356</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>21</v>
@@ -1305,16 +1302,16 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
-        <v>43356</v>
+        <v>43357</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>13</v>
@@ -1323,17 +1320,13 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <v>43357</v>
+        <v>43358</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="E25" s="13" t="s">
-        <v>22</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="13" t="s">
         <v>13</v>
       </c>
@@ -1341,66 +1334,70 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
-        <v>43358</v>
+        <v>43359</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
+        <v>23</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="F26" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B27" s="2">
-        <v>43359</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="13" t="s">
+    <row r="27" spans="2:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B27" s="16">
+        <v>43374</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="15"/>
+      <c r="G27" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B28" s="16">
+        <v>43375</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E27" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="13" t="s">
+      <c r="E28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G27" s="12"/>
-    </row>
-    <row r="28" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B28" s="16">
-        <v>43374</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="15"/>
-      <c r="G28" s="14" t="s">
-        <v>37</v>
-      </c>
+      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
-        <v>43375</v>
+        <v>43376</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>13</v>
@@ -1409,72 +1406,72 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="16">
-        <v>43376</v>
+        <v>43377</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="16">
-        <v>43377</v>
+        <v>43382</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="17"/>
-    </row>
-    <row r="32" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G31" s="17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" s="16">
-        <v>43382</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="F32" s="18" t="s">
+        <v>43383</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="17" t="s">
-        <v>42</v>
-      </c>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="16">
-        <v>43383</v>
+        <v>43384</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>13</v>
@@ -1483,16 +1480,16 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="16">
-        <v>43384</v>
+        <v>43385</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F34" s="20" t="s">
         <v>13</v>
@@ -1501,34 +1498,34 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="16">
-        <v>43385</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="20" t="s">
+        <v>43386</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F35" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="19"/>
+      <c r="G35" s="21"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
-        <v>43386</v>
+        <v>43387</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>13</v>
@@ -1537,120 +1534,120 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="16">
-        <v>43387</v>
+        <v>43388</v>
       </c>
       <c r="C37" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B38" s="16">
+        <v>43389</v>
+      </c>
+      <c r="C38" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D37" s="22" t="s">
+      <c r="D38" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="16">
+        <v>43390</v>
+      </c>
+      <c r="C39" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F37" s="22" t="s">
+      <c r="D39" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B38" s="16">
-        <v>43388</v>
-      </c>
-      <c r="C38" s="22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="21"/>
-    </row>
-    <row r="39" spans="2:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B39" s="16">
-        <v>43389</v>
-      </c>
-      <c r="C39" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="D39" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="E39" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F39" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>50</v>
-      </c>
+      <c r="G39" s="23"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="16">
-        <v>43390</v>
+        <v>43391</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="24" t="s">
+      <c r="F40" s="26" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="23"/>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B41" s="16">
-        <v>43391</v>
-      </c>
-      <c r="C41" s="24" t="s">
+        <v>43395</v>
+      </c>
+      <c r="C41" s="24">
+        <v>1810</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F41" s="24"/>
+      <c r="G41" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B42" s="16">
+        <v>43396</v>
+      </c>
+      <c r="C42" s="26" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F41" s="26" t="s">
+      <c r="D42" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E42" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="23"/>
-    </row>
-    <row r="42" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B42" s="16">
-        <v>43395</v>
-      </c>
-      <c r="C42" s="24">
-        <v>1810</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="F42" s="24"/>
-      <c r="G42" s="23" t="s">
-        <v>51</v>
-      </c>
+      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="16">
-        <v>43396</v>
+        <v>43397</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>13</v>
@@ -1659,63 +1656,61 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="16">
-        <v>43397</v>
-      </c>
-      <c r="C44" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D44" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="25"/>
+        <v>43398</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="28"/>
+      <c r="G44" s="27"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="16">
-        <v>43398</v>
+        <v>43399</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="27"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="16">
-        <v>43399</v>
+        <v>43400</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="27"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="16">
-        <v>43400</v>
+        <v>43401</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>9</v>
@@ -1725,1067 +1720,1067 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="16">
-        <v>43401</v>
-      </c>
-      <c r="C48" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="D48" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="28"/>
-      <c r="G48" s="27"/>
+        <v>43402</v>
+      </c>
+      <c r="C48" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="D48" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E48" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48" s="30"/>
+      <c r="G48" s="29"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="16">
-        <v>43402</v>
-      </c>
-      <c r="C49" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E49" s="30" t="s">
+        <v>43403</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E49" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="30"/>
-      <c r="G49" s="29"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="32"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
-        <v>43403</v>
+        <v>43404</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>54</v>
       </c>
       <c r="D50" s="33" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E50" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="F50" s="33"/>
+        <v>9</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="G50" s="32"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="16">
-        <v>43404</v>
+        <v>43405</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51" s="33" t="s">
-        <v>13</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F51" s="33"/>
       <c r="G51" s="32"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="16">
-        <v>43405</v>
+        <v>43406</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>56</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="32"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="16">
-        <v>43406</v>
+        <v>43408</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="32"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="16">
-        <v>43408</v>
+        <v>43409</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="32"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="16">
-        <v>43409</v>
+        <v>43410</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D55" s="33" t="s">
         <v>19</v>
       </c>
       <c r="E55" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="F55" s="33"/>
+        <v>9</v>
+      </c>
+      <c r="F55" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="G55" s="32"/>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B56" s="16">
-        <v>43410</v>
+        <v>43422</v>
       </c>
       <c r="C56" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D56" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="E56" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>13</v>
-      </c>
-      <c r="G56" s="32"/>
-    </row>
-    <row r="57" spans="2:7" ht="32" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B57" s="16">
-        <v>43422</v>
+        <v>43423</v>
       </c>
       <c r="C57" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
+        <v>36</v>
+      </c>
+      <c r="D57" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E57" s="33" t="s">
+        <v>4</v>
+      </c>
       <c r="F57" s="33"/>
-      <c r="G57" s="32" t="s">
-        <v>61</v>
-      </c>
+      <c r="G57" s="32"/>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="16">
-        <v>43423</v>
+        <v>43424</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="32"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="16">
-        <v>43424</v>
+        <v>43425</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="32"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="16">
-        <v>43425</v>
+        <v>43426</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="32"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="16">
-        <v>43426</v>
+        <v>43427</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="32"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="16">
-        <v>43427</v>
-      </c>
-      <c r="C62" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E62" s="33" t="s">
+        <v>43433</v>
+      </c>
+      <c r="C62" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="D62" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="F62" s="33"/>
-      <c r="G62" s="32"/>
+      <c r="E62" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" s="35"/>
+      <c r="G62" s="34"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="16">
-        <v>43433</v>
+        <v>43435</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>5</v>
+        <v>60</v>
       </c>
       <c r="F63" s="35"/>
       <c r="G63" s="34"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="16">
-        <v>43435</v>
+        <v>43438</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="D64" s="35" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="34"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="16">
-        <v>43438</v>
+        <v>43439</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="34"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="16">
-        <v>43439</v>
-      </c>
-      <c r="C66" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D66" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="E66" s="35" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="35"/>
-      <c r="G66" s="34"/>
+        <v>43440</v>
+      </c>
+      <c r="C66" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="D66" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E66" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="F66" s="37"/>
+      <c r="G66" s="36"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="16">
-        <v>43440</v>
+        <v>43442</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="36"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="16">
-        <v>43442</v>
+        <v>43443</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="E68" s="37" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F68" s="37"/>
       <c r="G68" s="36"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="16">
-        <v>43443</v>
+        <v>43444</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D69" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E69" s="37" t="s">
-        <v>15</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="D69" s="37"/>
+      <c r="E69" s="37"/>
       <c r="F69" s="37"/>
       <c r="G69" s="36"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="16">
-        <v>43444</v>
+        <v>43445</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D70" s="37"/>
-      <c r="E70" s="37"/>
+        <v>63</v>
+      </c>
+      <c r="D70" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>4</v>
+      </c>
       <c r="F70" s="37"/>
       <c r="G70" s="36"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="16">
-        <v>43445</v>
+        <v>43451</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="E71" s="37" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F71" s="37"/>
       <c r="G71" s="36"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="16">
-        <v>43451</v>
+        <v>43452</v>
       </c>
       <c r="C72" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D72" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D72" s="37" t="s">
-        <v>70</v>
-      </c>
       <c r="E72" s="37" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="F72" s="37"/>
       <c r="G72" s="36"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B73" s="16">
-        <v>43452</v>
+        <v>43473</v>
       </c>
       <c r="C73" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="E73" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="F73" s="37"/>
+      <c r="G73" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B74" s="16">
+        <v>43475</v>
+      </c>
+      <c r="C74" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D73" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E73" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="F73" s="37"/>
-      <c r="G73" s="36"/>
-    </row>
-    <row r="74" spans="2:7" ht="48" x14ac:dyDescent="0.2">
-      <c r="B74" s="16">
-        <v>43473</v>
-      </c>
-      <c r="C74" s="37" t="s">
+      <c r="D74" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D74" s="37" t="s">
-        <v>73</v>
-      </c>
       <c r="E74" s="37" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="F74" s="37"/>
-      <c r="G74" s="38" t="s">
-        <v>75</v>
-      </c>
+      <c r="G74" s="38"/>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="16">
-        <v>43475</v>
+        <v>43479</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E75" s="37" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="38"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="16">
-        <v>43479</v>
+        <v>43482</v>
       </c>
       <c r="C76" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D76" s="37" t="s">
-        <v>74</v>
+        <v>20</v>
       </c>
       <c r="E76" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="F76" s="37"/>
+        <v>20</v>
+      </c>
+      <c r="F76" s="37" t="s">
+        <v>70</v>
+      </c>
       <c r="G76" s="38"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="16">
-        <v>43482</v>
+        <v>43484</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>20</v>
+        <v>68</v>
       </c>
       <c r="E77" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="37" t="s">
-        <v>72</v>
-      </c>
+      <c r="F77" s="37"/>
       <c r="G77" s="38"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="16">
-        <v>43484</v>
+      <c r="B78" s="40" t="s">
+        <v>122</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="38"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B79" s="40" t="s">
-        <v>124</v>
+      <c r="B79" s="40">
+        <v>43491</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D79" s="37" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="E79" s="37" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="38"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="40">
-        <v>43491</v>
+        <v>43492</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D80" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E80" s="37" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="38"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="40">
-        <v>43492</v>
+        <v>43493</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D81" s="37" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E81" s="37" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="F81" s="37"/>
       <c r="G81" s="38"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B82" s="40">
-        <v>43493</v>
+      <c r="B82" s="16">
+        <v>43500</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D82" s="37" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E82" s="37" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="38"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="16">
-        <v>43500</v>
+      <c r="B83" s="40">
+        <v>43502</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D83" s="37" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E83" s="37" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="38"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="40">
-        <v>43502</v>
+        <v>43504</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D84" s="37" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="E84" s="37" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="38"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="40">
-        <v>43504</v>
+        <v>43506</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="D85" s="37" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="E85" s="37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="38"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="40">
-        <v>43506</v>
+        <v>43509</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D86" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E86" s="37" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="38"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="40">
-        <v>43509</v>
+        <v>43511</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D87" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E87" s="37" t="s">
-        <v>15</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D87" s="37"/>
+      <c r="E87" s="37"/>
       <c r="F87" s="37"/>
       <c r="G87" s="38"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="40">
-        <v>43511</v>
+        <v>43522</v>
       </c>
       <c r="C88" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
+      <c r="D88" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E88" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="F88" s="37"/>
       <c r="G88" s="38"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="40">
-        <v>43522</v>
+        <v>43524</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D89" s="37" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="38"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="40">
-        <v>43524</v>
+        <v>43527</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D90" s="37" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E90" s="37" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="38"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="40">
-        <v>43527</v>
+        <v>43529</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D91" s="37" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E91" s="37" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="38"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B92" s="40">
-        <v>43529</v>
+      <c r="B92" s="16">
+        <v>43543</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D92" s="37" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="E92" s="37" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="38"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B93" s="16">
-        <v>43543</v>
+      <c r="B93" s="40">
+        <v>43545</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="E93" s="37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F93" s="37"/>
       <c r="G93" s="38"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="40">
-        <v>43545</v>
+        <v>43547</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D94" s="37" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="E94" s="37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="38"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="40">
-        <v>43547</v>
+        <v>43549</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D95" s="37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E95" s="37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="38"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="40">
-        <v>43549</v>
+        <v>43555</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D96" s="37" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="E96" s="37" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="F96" s="37"/>
       <c r="G96" s="38"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="40">
-        <v>43555</v>
+        <v>43560</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D97" s="37" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E97" s="37" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="38"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="40">
-        <v>43560</v>
+        <v>43562</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D98" s="37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E98" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="38"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="40">
-        <v>43562</v>
+        <v>43564</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D99" s="37" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E99" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="38"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="40">
-        <v>43564</v>
+        <v>43566</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D100" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="37" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="F100" s="37"/>
       <c r="G100" s="38"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="40">
-        <v>43566</v>
+        <v>43570</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D101" s="37" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="E101" s="37" t="s">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="38"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="40">
-        <v>43570</v>
+        <v>43576</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D102" s="37" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="E102" s="37" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="38"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="40">
-        <v>43576</v>
+        <v>43579</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="E103" s="37" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="38"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="40">
-        <v>43579</v>
+        <v>43585</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D104" s="37" t="s">
-        <v>20</v>
+        <v>81</v>
       </c>
       <c r="E104" s="37" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="38"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B105" s="40">
-        <v>43585</v>
+      <c r="B105" s="16">
+        <v>43588</v>
       </c>
       <c r="C105" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="D105" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="E105" s="37" t="s">
         <v>81</v>
-      </c>
-      <c r="D105" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="E105" s="37" t="s">
-        <v>88</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="38"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B106" s="16">
-        <v>43588</v>
+      <c r="B106" s="40">
+        <v>43591</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="D106" s="37" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="E106" s="37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="38"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="40">
-        <v>43591</v>
+        <v>43595</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D107" s="37" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E107" s="37" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="38"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="40">
-        <v>43595</v>
+        <v>43602</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D108" s="37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E108" s="37" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="38"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="40">
-        <v>43602</v>
+        <v>43616</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D109" s="37" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="E109" s="37" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="38"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B110" s="40">
-        <v>43616</v>
+      <c r="B110" s="16">
+        <v>43624</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="D110" s="37" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="E110" s="37" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="38"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B111" s="16">
-        <v>43624</v>
+      <c r="B111" s="40">
+        <v>43628</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D111" s="37" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="E111" s="37" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="38"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="40">
-        <v>43628</v>
+        <v>43631</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D112" s="37" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="E112" s="37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="38"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="40">
-        <v>43631</v>
+        <v>43637</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="D113" s="37" t="s">
         <v>39</v>
       </c>
       <c r="E113" s="37" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="38"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B114" s="40">
-        <v>43637</v>
+      <c r="B114" s="16">
+        <v>43649</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="D114" s="37" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="E114" s="37" t="s">
         <v>93</v>
@@ -2794,314 +2789,312 @@
       <c r="G114" s="38"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B115" s="16">
-        <v>43649</v>
+      <c r="B115" s="40">
+        <v>43654</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D115" s="37" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E115" s="37" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="38"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" s="40">
-        <v>43654</v>
+        <v>43662</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="D116" s="37" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="E116" s="37" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="38"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="40">
-        <v>43662</v>
+        <v>43665</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D117" s="37" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="E117" s="37" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="38"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" s="40">
-        <v>43665</v>
-      </c>
-      <c r="C118" s="37" t="s">
-        <v>67</v>
+        <v>43669</v>
+      </c>
+      <c r="C118" s="37">
+        <v>1803</v>
       </c>
       <c r="D118" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="E118" s="37" t="s">
         <v>97</v>
-      </c>
-      <c r="E118" s="37" t="s">
-        <v>98</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="38"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" s="40">
-        <v>43669</v>
-      </c>
-      <c r="C119" s="37">
-        <v>1803</v>
+        <v>43672</v>
+      </c>
+      <c r="C119" s="37" t="s">
+        <v>64</v>
       </c>
       <c r="D119" s="37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E119" s="37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="38"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="40">
-        <v>43672</v>
+        <v>43676</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D120" s="37" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E120" s="37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="38"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B121" s="40">
-        <v>43676</v>
+      <c r="B121" s="16">
+        <v>43681</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D121" s="37" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E121" s="37" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="38"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B122" s="16">
-        <v>43681</v>
+      <c r="B122" s="40">
+        <v>43683</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D122" s="37" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E122" s="37" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="38"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" s="40">
-        <v>43683</v>
+        <v>43687</v>
       </c>
       <c r="C123" s="37" t="s">
         <v>66</v>
       </c>
       <c r="D123" s="37" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E123" s="37" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="38"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" s="40">
-        <v>43687</v>
+        <v>43691</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="D124" s="37" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E124" s="37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="38"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" s="40">
-        <v>43691</v>
+        <v>43695</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="D125" s="37" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="E125" s="37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="38"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="40">
-        <v>43695</v>
+        <v>43699</v>
       </c>
       <c r="C126" s="37" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D126" s="37" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E126" s="37" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="38"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" s="40">
-        <v>43699</v>
+        <v>43702</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D127" s="37" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="E127" s="37" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="38"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="40">
-        <v>43702</v>
+        <v>43705</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D128" s="37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E128" s="37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="38"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B129" s="40">
-        <v>43705</v>
+      <c r="B129" s="16">
+        <v>43711</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D129" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E129" s="37" t="s">
-        <v>107</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="E129" s="37"/>
       <c r="F129" s="37"/>
       <c r="G129" s="38"/>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B130" s="16">
-        <v>43711</v>
+    <row r="130" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B130" s="40">
+        <v>43714</v>
       </c>
       <c r="C130" s="37" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D130" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="E130" s="37"/>
+        <v>68</v>
+      </c>
+      <c r="E130" s="37" t="s">
+        <v>106</v>
+      </c>
       <c r="F130" s="37"/>
-      <c r="G130" s="38"/>
-    </row>
-    <row r="131" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G130" s="38" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B131" s="40">
-        <v>43714</v>
+        <v>43730</v>
       </c>
       <c r="C131" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D131" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D131" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="E131" s="37" t="s">
-        <v>108</v>
-      </c>
+      <c r="E131" s="37"/>
       <c r="F131" s="37"/>
-      <c r="G131" s="38" t="s">
-        <v>109</v>
-      </c>
+      <c r="G131" s="38"/>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="40">
-        <v>43730</v>
+        <v>43733</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D132" s="37" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="E132" s="37"/>
       <c r="F132" s="37"/>
       <c r="G132" s="38"/>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B133" s="40">
-        <v>43733</v>
+      <c r="B133" s="16">
+        <v>43740</v>
       </c>
       <c r="C133" s="37" t="s">
         <v>79</v>
       </c>
       <c r="D133" s="37" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E133" s="37"/>
       <c r="F133" s="37"/>
       <c r="G133" s="38"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B134" s="16">
-        <v>43740</v>
+      <c r="B134" s="40">
+        <v>43745</v>
       </c>
       <c r="C134" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="D134" s="37" t="s">
         <v>81</v>
-      </c>
-      <c r="D134" s="37" t="s">
-        <v>39</v>
       </c>
       <c r="E134" s="37"/>
       <c r="F134" s="37"/>
@@ -3109,27 +3102,27 @@
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="40">
-        <v>43745</v>
+        <v>43749</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D135" s="37" t="s">
-        <v>83</v>
+        <v>37</v>
       </c>
       <c r="E135" s="37"/>
       <c r="F135" s="37"/>
       <c r="G135" s="38"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B136" s="40">
-        <v>43749</v>
+      <c r="B136" s="2">
+        <v>43753</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="D136" s="37" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="E136" s="37"/>
       <c r="F136" s="37"/>
@@ -3137,13 +3130,13 @@
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="2">
-        <v>43753</v>
+        <v>43757</v>
       </c>
       <c r="C137" s="37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D137" s="37" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E137" s="37"/>
       <c r="F137" s="37"/>
@@ -3151,57 +3144,57 @@
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="2">
-        <v>43757</v>
+        <v>43760</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D138" s="37" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="E138" s="37"/>
       <c r="F138" s="37"/>
       <c r="G138" s="38"/>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B139" s="2">
-        <v>43760</v>
+        <v>43773</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>85</v>
+        <v>108</v>
       </c>
       <c r="D139" s="37" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="E139" s="37"/>
       <c r="F139" s="37"/>
-      <c r="G139" s="38"/>
-    </row>
-    <row r="140" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G139" s="38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B140" s="2">
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="C140" s="37" t="s">
         <v>110</v>
       </c>
       <c r="D140" s="37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E140" s="37"/>
       <c r="F140" s="37"/>
-      <c r="G140" s="38" t="s">
-        <v>113</v>
-      </c>
+      <c r="G140" s="38"/>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="2">
-        <v>43775</v>
+        <v>43779</v>
       </c>
       <c r="C141" s="37" t="s">
-        <v>112</v>
+        <v>79</v>
       </c>
       <c r="D141" s="37" t="s">
-        <v>114</v>
+        <v>71</v>
       </c>
       <c r="E141" s="37"/>
       <c r="F141" s="37"/>
@@ -3209,13 +3202,13 @@
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="2">
-        <v>43779</v>
+        <v>43786</v>
       </c>
       <c r="C142" s="37" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="D142" s="37" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="E142" s="37"/>
       <c r="F142" s="37"/>
@@ -3223,13 +3216,13 @@
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="2">
-        <v>43786</v>
+        <v>43793</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="D143" s="37" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="E143" s="37"/>
       <c r="F143" s="37"/>
@@ -3237,13 +3230,13 @@
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="2">
-        <v>43793</v>
+        <v>43799</v>
       </c>
       <c r="C144" s="37" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
       <c r="D144" s="37" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="E144" s="37"/>
       <c r="F144" s="37"/>
@@ -3251,13 +3244,13 @@
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="2">
-        <v>43799</v>
+        <v>43806</v>
       </c>
       <c r="C145" s="37" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="D145" s="37" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="E145" s="37"/>
       <c r="F145" s="37"/>
@@ -3265,13 +3258,13 @@
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="2">
-        <v>43806</v>
+        <v>43811</v>
       </c>
       <c r="C146" s="37" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D146" s="37" t="s">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="E146" s="37"/>
       <c r="F146" s="37"/>
@@ -3279,13 +3272,13 @@
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="2">
-        <v>43811</v>
+        <v>43814</v>
       </c>
       <c r="C147" s="37" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D147" s="37" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E147" s="37"/>
       <c r="F147" s="37"/>
@@ -3293,13 +3286,13 @@
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="2">
-        <v>43814</v>
+        <v>43818</v>
       </c>
       <c r="C148" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D148" s="37" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="E148" s="37"/>
       <c r="F148" s="37"/>
@@ -3307,13 +3300,13 @@
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="2">
-        <v>43818</v>
+        <v>43829</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D149" s="37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E149" s="37"/>
       <c r="F149" s="37"/>
@@ -3321,13 +3314,13 @@
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="2">
-        <v>43829</v>
+        <v>43841</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="D150" s="37" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="E150" s="37"/>
       <c r="F150" s="37"/>
@@ -3335,13 +3328,13 @@
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="2">
-        <v>43841</v>
+        <v>43843</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>117</v>
+        <v>77</v>
       </c>
       <c r="D151" s="37" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="E151" s="37"/>
       <c r="F151" s="37"/>
@@ -3349,13 +3342,13 @@
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="2">
-        <v>43843</v>
+        <v>43849</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D152" s="37" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="E152" s="37"/>
       <c r="F152" s="37"/>
@@ -3363,13 +3356,13 @@
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="2">
-        <v>43849</v>
+        <v>43852</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D153" s="37" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="E153" s="37"/>
       <c r="F153" s="37"/>
@@ -3377,57 +3370,57 @@
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="2">
-        <v>43852</v>
+        <v>43859</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D154" s="37" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="E154" s="37"/>
       <c r="F154" s="37"/>
       <c r="G154" s="38"/>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B155" s="2">
-        <v>43859</v>
+        <v>43864</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>77</v>
+        <v>113</v>
       </c>
       <c r="D155" s="37" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="E155" s="37"/>
       <c r="F155" s="37"/>
-      <c r="G155" s="38"/>
-    </row>
-    <row r="156" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G155" s="38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B156" s="2">
-        <v>43864</v>
+        <v>43867</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="D156" s="37" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E156" s="37"/>
       <c r="F156" s="37"/>
-      <c r="G156" s="38" t="s">
-        <v>120</v>
-      </c>
+      <c r="G156" s="38"/>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="2">
-        <v>43867</v>
+        <v>43874</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="D157" s="37" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="E157" s="37"/>
       <c r="F157" s="37"/>
@@ -3435,13 +3428,13 @@
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="2">
-        <v>43874</v>
+        <v>43879</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D158" s="37" t="s">
-        <v>82</v>
+        <v>119</v>
       </c>
       <c r="E158" s="37"/>
       <c r="F158" s="37"/>
@@ -3449,13 +3442,13 @@
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="2">
-        <v>43879</v>
+        <v>43886</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>87</v>
+        <v>113</v>
       </c>
       <c r="D159" s="37" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E159" s="37"/>
       <c r="F159" s="37"/>
@@ -3463,13 +3456,13 @@
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="2">
-        <v>43886</v>
+        <v>43894</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="D160" s="37" t="s">
-        <v>116</v>
+        <v>81</v>
       </c>
       <c r="E160" s="37"/>
       <c r="F160" s="37"/>
@@ -3477,13 +3470,13 @@
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="2">
-        <v>43894</v>
+        <v>43900</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D161" s="37" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E161" s="37"/>
       <c r="F161" s="37"/>
@@ -3491,13 +3484,13 @@
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" s="2">
-        <v>43900</v>
+        <v>43903</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="D162" s="37" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="E162" s="37"/>
       <c r="F162" s="37"/>
@@ -3505,13 +3498,13 @@
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B163" s="2">
-        <v>43903</v>
+        <v>43910</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>122</v>
+        <v>77</v>
       </c>
       <c r="D163" s="37" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="E163" s="37"/>
       <c r="F163" s="37"/>
@@ -3519,13 +3512,13 @@
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B164" s="2">
-        <v>43910</v>
+        <v>43914</v>
       </c>
       <c r="C164" s="37" t="s">
         <v>79</v>
       </c>
       <c r="D164" s="37" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="E164" s="37"/>
       <c r="F164" s="37"/>
@@ -3533,13 +3526,13 @@
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B165" s="2">
-        <v>43914</v>
+        <v>43920</v>
       </c>
       <c r="C165" s="37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D165" s="37" t="s">
         <v>81</v>
-      </c>
-      <c r="D165" s="37" t="s">
-        <v>83</v>
       </c>
       <c r="E165" s="37"/>
       <c r="F165" s="37"/>
@@ -3547,13 +3540,13 @@
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B166" s="2">
-        <v>43920</v>
+        <v>43924</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D166" s="37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E166" s="37"/>
       <c r="F166" s="37"/>
@@ -3561,13 +3554,13 @@
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B167" s="2">
-        <v>43924</v>
+        <v>43927</v>
       </c>
       <c r="C167" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D167" s="37" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
       <c r="E167" s="37"/>
       <c r="F167" s="37"/>
@@ -3575,13 +3568,13 @@
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B168" s="2">
-        <v>43927</v>
+        <v>43931</v>
       </c>
       <c r="C168" s="37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D168" s="37" t="s">
-        <v>53</v>
+        <v>38</v>
       </c>
       <c r="E168" s="37"/>
       <c r="F168" s="37"/>
@@ -3589,13 +3582,13 @@
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" s="2">
-        <v>43931</v>
+        <v>43938</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D169" s="37" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="E169" s="37"/>
       <c r="F169" s="37"/>
@@ -3603,13 +3596,13 @@
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B170" s="2">
-        <v>43938</v>
+        <v>43941</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D170" s="37" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E170" s="37"/>
       <c r="F170" s="37"/>
@@ -3617,13 +3610,13 @@
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" s="2">
-        <v>43941</v>
+        <v>43947</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D171" s="37" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E171" s="37"/>
       <c r="F171" s="37"/>
@@ -3631,10 +3624,10 @@
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B172" s="2">
-        <v>43947</v>
+        <v>43953</v>
       </c>
       <c r="C172" s="37" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D172" s="37" t="s">
         <v>20</v>
@@ -3645,13 +3638,13 @@
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B173" s="2">
-        <v>43953</v>
+        <v>43957</v>
       </c>
       <c r="C173" s="37" t="s">
         <v>64</v>
       </c>
       <c r="D173" s="37" t="s">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E173" s="37"/>
       <c r="F173" s="37"/>
@@ -3659,13 +3652,13 @@
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B174" s="2">
-        <v>43957</v>
+        <v>43963</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="D174" s="37" t="s">
-        <v>62</v>
+        <v>20</v>
       </c>
       <c r="E174" s="37"/>
       <c r="F174" s="37"/>
@@ -3673,13 +3666,13 @@
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B175" s="2">
-        <v>43963</v>
+        <v>43967</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D175" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E175" s="37"/>
       <c r="F175" s="37"/>
@@ -3687,13 +3680,13 @@
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B176" s="2">
-        <v>43967</v>
+        <v>43971</v>
       </c>
       <c r="C176" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D176" s="37" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E176" s="37"/>
       <c r="F176" s="37"/>
@@ -3701,57 +3694,57 @@
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B177" s="2">
-        <v>43971</v>
+        <v>43973</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D177" s="37" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E177" s="37"/>
       <c r="F177" s="37"/>
       <c r="G177" s="38"/>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B178" s="2">
-        <v>43973</v>
+        <v>43974</v>
       </c>
       <c r="C178" s="37" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D178" s="37" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E178" s="37"/>
       <c r="F178" s="37"/>
-      <c r="G178" s="38"/>
-    </row>
-    <row r="179" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="G178" s="38" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B179" s="2">
-        <v>43974</v>
+        <v>43981</v>
       </c>
       <c r="C179" s="37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D179" s="37" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E179" s="37"/>
       <c r="F179" s="37"/>
-      <c r="G179" s="38" t="s">
-        <v>123</v>
-      </c>
+      <c r="G179" s="38"/>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B180" s="2">
-        <v>43981</v>
+        <v>43986</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D180" s="37" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="E180" s="37"/>
       <c r="F180" s="37"/>
@@ -3759,43 +3752,43 @@
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B181" s="2">
-        <v>43986</v>
+        <v>43991</v>
       </c>
       <c r="C181" s="37" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D181" s="37" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E181" s="37"/>
-      <c r="F181" s="37"/>
+      <c r="F181" s="37" t="s">
+        <v>13</v>
+      </c>
       <c r="G181" s="38"/>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B182" s="2">
-        <v>43991</v>
+        <v>43992</v>
       </c>
       <c r="C182" s="37" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D182" s="37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E182" s="37"/>
-      <c r="F182" s="37" t="s">
-        <v>13</v>
-      </c>
+      <c r="F182" s="37"/>
       <c r="G182" s="38"/>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B183" s="2">
-        <v>43992</v>
+        <v>43995</v>
       </c>
       <c r="C183" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D183" s="37" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E183" s="37"/>
       <c r="F183" s="37"/>
@@ -3803,27 +3796,27 @@
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B184" s="2">
-        <v>43995</v>
+        <v>43998</v>
       </c>
       <c r="C184" s="37" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D184" s="37" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="E184" s="37"/>
       <c r="F184" s="37"/>
-      <c r="G184" s="38"/>
+      <c r="G184" s="39"/>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B185" s="2">
-        <v>43998</v>
+        <v>44000</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D185" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E185" s="37"/>
       <c r="F185" s="37"/>
@@ -3831,68 +3824,66 @@
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B186" s="2">
-        <v>44000</v>
+        <v>44003</v>
       </c>
       <c r="C186" s="37" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D186" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E186" s="37"/>
       <c r="F186" s="37"/>
       <c r="G186" s="39"/>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B187" s="2">
-        <v>44003</v>
+        <v>44005</v>
       </c>
       <c r="C187" s="37" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D187" s="37" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E187" s="37"/>
       <c r="F187" s="37"/>
-      <c r="G187" s="39"/>
-    </row>
-    <row r="188" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="G187" s="39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B188" s="2">
-        <v>44005</v>
+        <v>44024</v>
       </c>
       <c r="C188" s="37" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D188" s="37" t="s">
         <v>19</v>
       </c>
       <c r="E188" s="37"/>
       <c r="F188" s="37"/>
-      <c r="G188" s="39" t="s">
-        <v>126</v>
-      </c>
+      <c r="G188" s="39"/>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B189" s="2">
-        <v>44024</v>
+        <v>44025</v>
       </c>
       <c r="C189" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D189" s="37" t="s">
-        <v>19</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="D189" s="37"/>
       <c r="E189" s="37"/>
       <c r="F189" s="37"/>
       <c r="G189" s="39"/>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B190" s="2">
-        <v>44025</v>
+        <v>44026</v>
       </c>
       <c r="C190" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D190" s="37"/>
       <c r="E190" s="37"/>
@@ -3901,25 +3892,27 @@
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B191" s="2">
-        <v>44026</v>
+        <v>44027</v>
       </c>
       <c r="C191" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="D191" s="37"/>
+        <v>52</v>
+      </c>
+      <c r="D191" s="37" t="s">
+        <v>20</v>
+      </c>
       <c r="E191" s="37"/>
       <c r="F191" s="37"/>
       <c r="G191" s="39"/>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B192" s="2">
-        <v>44027</v>
+        <v>44029</v>
       </c>
       <c r="C192" s="37" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D192" s="37" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="E192" s="37"/>
       <c r="F192" s="37"/>
@@ -3927,65 +3920,65 @@
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B193" s="2">
-        <v>44029</v>
+        <v>44030</v>
       </c>
       <c r="C193" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D193" s="37" t="s">
-        <v>9</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D193" s="37"/>
       <c r="E193" s="37"/>
       <c r="F193" s="37"/>
       <c r="G193" s="39"/>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B194" s="2">
-        <v>44030</v>
+        <v>44032</v>
       </c>
       <c r="C194" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="D194" s="37"/>
+        <v>55</v>
+      </c>
+      <c r="D194" s="37" t="s">
+        <v>60</v>
+      </c>
       <c r="E194" s="37"/>
       <c r="F194" s="37"/>
       <c r="G194" s="39"/>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B195" s="2">
-        <v>44032</v>
+        <v>44035</v>
       </c>
       <c r="C195" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D195" s="37" t="s">
-        <v>62</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="D195" s="37"/>
       <c r="E195" s="37"/>
       <c r="F195" s="37"/>
       <c r="G195" s="39"/>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B196" s="2">
-        <v>44035</v>
+        <v>44036</v>
       </c>
       <c r="C196" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D196" s="37"/>
+        <v>52</v>
+      </c>
+      <c r="D196" s="37" t="s">
+        <v>39</v>
+      </c>
       <c r="E196" s="37"/>
       <c r="F196" s="37"/>
       <c r="G196" s="39"/>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B197" s="2">
-        <v>44036</v>
+        <v>44039</v>
       </c>
       <c r="C197" s="37" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D197" s="37" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="E197" s="37"/>
       <c r="F197" s="37"/>
@@ -3993,10 +3986,10 @@
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B198" s="2">
-        <v>44039</v>
+        <v>44041</v>
       </c>
       <c r="C198" s="37" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D198" s="37" t="s">
         <v>19</v>
@@ -4007,13 +4000,13 @@
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B199" s="2">
-        <v>44041</v>
+        <v>44043</v>
       </c>
       <c r="C199" s="37" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D199" s="37" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E199" s="37"/>
       <c r="F199" s="37"/>
@@ -4021,43 +4014,43 @@
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B200" s="2">
-        <v>44043</v>
+        <v>44045</v>
       </c>
       <c r="C200" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D200" s="37" t="s">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="E200" s="37"/>
-      <c r="F200" s="37"/>
+      <c r="F200" s="37" t="s">
+        <v>13</v>
+      </c>
       <c r="G200" s="39"/>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B201" s="2">
-        <v>44045</v>
+        <v>44046</v>
       </c>
       <c r="C201" s="37" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="D201" s="37" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E201" s="37"/>
-      <c r="F201" s="37" t="s">
-        <v>13</v>
-      </c>
+      <c r="F201" s="37"/>
       <c r="G201" s="39"/>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" s="2">
-        <v>44046</v>
+        <v>44047</v>
       </c>
       <c r="C202" s="37" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D202" s="37" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="E202" s="37"/>
       <c r="F202" s="37"/>
@@ -4065,80 +4058,63 @@
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B203" s="2">
-        <v>44047</v>
+        <v>44049</v>
       </c>
       <c r="C203" s="37" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D203" s="37" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E203" s="37"/>
       <c r="F203" s="37"/>
       <c r="G203" s="39"/>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B204" s="2">
-        <v>44049</v>
+        <v>44050</v>
       </c>
       <c r="C204" s="37" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D204" s="37" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="E204" s="37"/>
       <c r="F204" s="37"/>
-      <c r="G204" s="39"/>
-    </row>
-    <row r="205" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="G204" s="39" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B205" s="2">
-        <v>44050</v>
+        <v>44075</v>
       </c>
       <c r="C205" s="37" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D205" s="37" t="s">
-        <v>20</v>
+        <v>94</v>
       </c>
       <c r="E205" s="37"/>
       <c r="F205" s="37"/>
-      <c r="G205" s="39" t="s">
-        <v>125</v>
-      </c>
+      <c r="G205" s="39"/>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B206" s="2">
-        <v>44075</v>
+        <v>44081</v>
       </c>
       <c r="C206" s="37" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D206" s="37" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="E206" s="37"/>
       <c r="F206" s="37"/>
       <c r="G206" s="39"/>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B207" s="2">
-        <v>44081</v>
-      </c>
-      <c r="C207" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D207" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="E207" s="37"/>
-      <c r="F207" s="37"/>
-      <c r="G207" s="39"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/dogweights_07sept2020.xlsx
+++ b/data/dogweights_07sept2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stellali/Desktop/Columbia/Fall 2020/Data Science/p8105_mtp_cl4043/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeff/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE8AA253-5BFE-5143-B6C3-21421F744051}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA7EA19-99BF-D840-B1C8-22B0912198BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16220" xr2:uid="{FE2855BC-C88C-48CF-83B3-51C705CCE195}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32580" windowHeight="19900" xr2:uid="{FE2855BC-C88C-48CF-83B3-51C705CCE195}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="127">
   <si>
     <t>Raisin</t>
   </si>
@@ -108,7 +108,13 @@
     <t>10 15</t>
   </si>
   <si>
+    <t>Weight (Lbs Oz)</t>
+  </si>
+  <si>
     <t>Right after leaving for 3 days at Weber's</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
   <si>
     <t>at camp bow wow</t>
@@ -456,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -577,6 +583,9 @@
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -892,10 +901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4341A93A-3D10-4622-B1DA-E7E06FAD8F84}">
-  <dimension ref="B1:G206"/>
+  <dimension ref="B1:G207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -908,266 +917,260 @@
     <col min="7" max="7" width="23.83203125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B1" s="41" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B2" s="2">
-        <v>43324</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1"/>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B3" s="2">
-        <v>43331</v>
+        <v>43324</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="5"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="2">
-        <v>43334</v>
+        <v>43331</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B5" s="2">
-        <v>43336</v>
+        <v>43334</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="2:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B6" s="2">
-        <v>43339</v>
+        <v>43336</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="2:7" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="2">
-        <v>43340</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="4"/>
+        <v>43339</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B8" s="2">
-        <v>43341</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>43340</v>
+      </c>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="4"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="2">
-        <v>43342</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+        <v>43341</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G9" s="5"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B10" s="2">
-        <v>43343</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>43342</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
       <c r="G10" s="5"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="2">
-        <v>43344</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+        <v>43343</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="G11" s="5"/>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="2">
-        <v>43345</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>43344</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
       <c r="G12" s="5"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
-        <v>43346</v>
+        <v>43345</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B14" s="2">
-        <v>43347</v>
+        <v>43346</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="2">
-        <v>43348</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" s="1" t="s">
+        <v>43347</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="E15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
-        <v>43349</v>
+        <v>43348</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>13</v>
@@ -1176,88 +1179,88 @@
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
-        <v>43350</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>18</v>
+        <v>43349</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>13</v>
       </c>
       <c r="G17" s="5"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
-        <v>43351</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" s="10" t="s">
+        <v>43350</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>13</v>
       </c>
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
-        <v>43352</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>29</v>
+        <v>43351</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
-        <v>43353</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>29</v>
+        <v>43352</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="12"/>
+      <c r="G20" s="5"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
-        <v>43354</v>
+        <v>43353</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>21</v>
+        <v>31</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="F21" s="13" t="s">
         <v>13</v>
@@ -1266,13 +1269,13 @@
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
-        <v>43355</v>
+        <v>43354</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E22" s="13" t="s">
         <v>21</v>
@@ -1284,13 +1287,13 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
-        <v>43356</v>
+        <v>43355</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E23" s="13" t="s">
         <v>21</v>
@@ -1302,16 +1305,16 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
-        <v>43357</v>
+        <v>43356</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F24" s="13" t="s">
         <v>13</v>
@@ -1320,13 +1323,17 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
-        <v>43358</v>
+        <v>43357</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
+        <v>24</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>22</v>
+      </c>
       <c r="F25" s="13" t="s">
         <v>13</v>
       </c>
@@ -1334,70 +1341,66 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
-        <v>43359</v>
+        <v>43358</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>22</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="13" t="s">
         <v>13</v>
       </c>
       <c r="G26" s="12"/>
     </row>
-    <row r="27" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B27" s="16">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B27" s="2">
+        <v>43359</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="2:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B28" s="16">
         <v>43374</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="15" t="s">
+      <c r="C28" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="15"/>
+      <c r="G28" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="15"/>
-      <c r="G27" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B28" s="16">
-        <v>43375</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" s="17"/>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29" s="16">
-        <v>43376</v>
+        <v>43375</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>13</v>
@@ -1406,72 +1409,72 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" s="16">
-        <v>43377</v>
+        <v>43376</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="17"/>
     </row>
-    <row r="31" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" s="16">
-        <v>43382</v>
+        <v>43377</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G31" s="17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G31" s="17"/>
+    </row>
+    <row r="32" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="16">
-        <v>43383</v>
-      </c>
-      <c r="C32" s="20" t="s">
+        <v>43382</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E32" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="F32" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" s="16">
-        <v>43384</v>
+        <v>43383</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E33" s="20" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F33" s="20" t="s">
         <v>13</v>
@@ -1480,16 +1483,16 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" s="16">
-        <v>43385</v>
+        <v>43384</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E34" s="20" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F34" s="20" t="s">
         <v>13</v>
@@ -1498,34 +1501,34 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" s="16">
-        <v>43386</v>
-      </c>
-      <c r="C35" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F35" s="22" t="s">
+        <v>43385</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G35" s="21"/>
+      <c r="G35" s="19"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" s="16">
-        <v>43387</v>
+        <v>43386</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D36" s="22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F36" s="22" t="s">
         <v>13</v>
@@ -1534,120 +1537,120 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" s="16">
+        <v>43387</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="21"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="16">
         <v>43388</v>
       </c>
-      <c r="C37" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="21"/>
-    </row>
-    <row r="38" spans="2:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B38" s="16">
+      <c r="C38" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="21"/>
+    </row>
+    <row r="39" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B39" s="16">
         <v>43389</v>
       </c>
-      <c r="C38" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="F38" s="22" t="s">
+      <c r="C39" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D39" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G38" s="21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="16">
-        <v>43390</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="F39" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="23"/>
+      <c r="G39" s="21" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" s="16">
-        <v>43391</v>
+        <v>43390</v>
       </c>
       <c r="C40" s="24" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D40" s="24" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E40" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="26" t="s">
+      <c r="F40" s="24" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="23"/>
     </row>
-    <row r="41" spans="2:7" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" s="16">
+        <v>43391</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G41" s="23"/>
+    </row>
+    <row r="42" spans="2:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B42" s="16">
         <v>43395</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C42" s="24">
         <v>1810</v>
       </c>
-      <c r="D41" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="E41" s="24" t="s">
+      <c r="D42" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="24"/>
+      <c r="G42" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="F41" s="24"/>
-      <c r="G41" s="23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B42" s="16">
-        <v>43396</v>
-      </c>
-      <c r="C42" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="D42" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="25"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" s="16">
-        <v>43397</v>
+        <v>43396</v>
       </c>
       <c r="C43" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D43" s="26" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E43" s="26" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F43" s="26" t="s">
         <v>13</v>
@@ -1656,61 +1659,63 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" s="16">
-        <v>43398</v>
-      </c>
-      <c r="C44" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>19</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F44" s="28"/>
-      <c r="G44" s="27"/>
+        <v>43397</v>
+      </c>
+      <c r="C44" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>55</v>
+      </c>
+      <c r="E44" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="F44" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="25"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" s="16">
-        <v>43399</v>
+        <v>43398</v>
       </c>
       <c r="C45" s="28" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D45" s="28" t="s">
         <v>19</v>
       </c>
       <c r="E45" s="28" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="F45" s="28"/>
       <c r="G45" s="27"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" s="16">
-        <v>43400</v>
+        <v>43399</v>
       </c>
       <c r="C46" s="28" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D46" s="28" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="F46" s="28"/>
       <c r="G46" s="27"/>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" s="16">
-        <v>43401</v>
+        <v>43400</v>
       </c>
       <c r="C47" s="28" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D47" s="28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E47" s="28" t="s">
         <v>9</v>
@@ -1720,1067 +1725,1067 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" s="16">
-        <v>43402</v>
-      </c>
-      <c r="C48" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="D48" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E48" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="F48" s="30"/>
-      <c r="G48" s="29"/>
+        <v>43401</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="D48" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="28"/>
+      <c r="G48" s="27"/>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B49" s="16">
-        <v>43403</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="D49" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="E49" s="33" t="s">
+        <v>43402</v>
+      </c>
+      <c r="C49" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="F49" s="33"/>
-      <c r="G49" s="32"/>
+      <c r="F49" s="30"/>
+      <c r="G49" s="29"/>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B50" s="16">
-        <v>43404</v>
+        <v>43403</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>54</v>
       </c>
       <c r="D50" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="E50" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>13</v>
-      </c>
+      <c r="F50" s="33"/>
       <c r="G50" s="32"/>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B51" s="16">
-        <v>43405</v>
+        <v>43404</v>
       </c>
       <c r="C51" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D51" s="33" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E51" s="33" t="s">
-        <v>31</v>
-      </c>
-      <c r="F51" s="33"/>
+        <v>9</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>13</v>
+      </c>
       <c r="G51" s="32"/>
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B52" s="16">
-        <v>43406</v>
+        <v>43405</v>
       </c>
       <c r="C52" s="33" t="s">
         <v>56</v>
       </c>
       <c r="D52" s="33" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E52" s="33" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F52" s="33"/>
       <c r="G52" s="32"/>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B53" s="16">
-        <v>43408</v>
+        <v>43406</v>
       </c>
       <c r="C53" s="33" t="s">
         <v>58</v>
       </c>
       <c r="D53" s="33" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="E53" s="33" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="F53" s="33"/>
       <c r="G53" s="32"/>
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B54" s="16">
-        <v>43409</v>
+        <v>43408</v>
       </c>
       <c r="C54" s="33" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="D54" s="33" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E54" s="33" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="32"/>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B55" s="16">
-        <v>43410</v>
+        <v>43409</v>
       </c>
       <c r="C55" s="33" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D55" s="33" t="s">
         <v>19</v>
       </c>
       <c r="E55" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="33"/>
+      <c r="G55" s="32"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" s="16">
+        <v>43410</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>19</v>
+      </c>
+      <c r="E56" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="F55" s="33" t="s">
+      <c r="F56" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G55" s="32"/>
-    </row>
-    <row r="56" spans="2:7" ht="32" x14ac:dyDescent="0.2">
-      <c r="B56" s="16">
+      <c r="G56" s="32"/>
+    </row>
+    <row r="57" spans="2:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="B57" s="16">
         <v>43422</v>
       </c>
-      <c r="C56" s="33" t="s">
-        <v>30</v>
-      </c>
-      <c r="D56" s="33"/>
-      <c r="E56" s="33"/>
-      <c r="F56" s="33"/>
-      <c r="G56" s="32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B57" s="16">
-        <v>43423</v>
-      </c>
       <c r="C57" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="E57" s="33" t="s">
-        <v>4</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
       <c r="F57" s="33"/>
-      <c r="G57" s="32"/>
+      <c r="G57" s="32" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B58" s="16">
-        <v>43424</v>
+        <v>43423</v>
       </c>
       <c r="C58" s="33" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="D58" s="33" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E58" s="33" t="s">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="32"/>
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B59" s="16">
-        <v>43425</v>
+        <v>43424</v>
       </c>
       <c r="C59" s="33" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D59" s="33" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E59" s="33" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="32"/>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B60" s="16">
-        <v>43426</v>
+        <v>43425</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D60" s="33" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="E60" s="33" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="32"/>
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B61" s="16">
-        <v>43427</v>
+        <v>43426</v>
       </c>
       <c r="C61" s="33" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="33" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E61" s="33" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="32"/>
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B62" s="16">
-        <v>43433</v>
-      </c>
-      <c r="C62" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="D62" s="35" t="s">
+        <v>43427</v>
+      </c>
+      <c r="C62" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="E62" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="F62" s="35"/>
-      <c r="G62" s="34"/>
+      <c r="F62" s="33"/>
+      <c r="G62" s="32"/>
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B63" s="16">
-        <v>43435</v>
+        <v>43433</v>
       </c>
       <c r="C63" s="35" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D63" s="35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E63" s="35" t="s">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="F63" s="35"/>
       <c r="G63" s="34"/>
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B64" s="16">
-        <v>43438</v>
+        <v>43435</v>
       </c>
       <c r="C64" s="35" t="s">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="D64" s="35" t="s">
         <v>20</v>
       </c>
       <c r="E64" s="35" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="F64" s="35"/>
       <c r="G64" s="34"/>
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B65" s="16">
-        <v>43439</v>
+        <v>43438</v>
       </c>
       <c r="C65" s="35" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="D65" s="35" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E65" s="35" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F65" s="35"/>
       <c r="G65" s="34"/>
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B66" s="16">
-        <v>43440</v>
-      </c>
-      <c r="C66" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="D66" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E66" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="F66" s="37"/>
-      <c r="G66" s="36"/>
+        <v>43439</v>
+      </c>
+      <c r="C66" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D66" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="35"/>
+      <c r="G66" s="34"/>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B67" s="16">
-        <v>43442</v>
+        <v>43440</v>
       </c>
       <c r="C67" s="37" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D67" s="37" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="E67" s="37" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="F67" s="37"/>
       <c r="G67" s="36"/>
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B68" s="16">
-        <v>43443</v>
+        <v>43442</v>
       </c>
       <c r="C68" s="37" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D68" s="37" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E68" s="37" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="F68" s="37"/>
       <c r="G68" s="36"/>
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B69" s="16">
-        <v>43444</v>
+        <v>43443</v>
       </c>
       <c r="C69" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
+        <v>66</v>
+      </c>
+      <c r="D69" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E69" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F69" s="37"/>
       <c r="G69" s="36"/>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B70" s="16">
-        <v>43445</v>
+        <v>43444</v>
       </c>
       <c r="C70" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D70" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>4</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="D70" s="37"/>
+      <c r="E70" s="37"/>
       <c r="F70" s="37"/>
       <c r="G70" s="36"/>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B71" s="16">
-        <v>43451</v>
+        <v>43445</v>
       </c>
       <c r="C71" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D71" s="37" t="s">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="E71" s="37" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="F71" s="37"/>
       <c r="G71" s="36"/>
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B72" s="16">
-        <v>43452</v>
+        <v>43451</v>
       </c>
       <c r="C72" s="37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D72" s="37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E72" s="37" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F72" s="37"/>
       <c r="G72" s="36"/>
     </row>
-    <row r="73" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B73" s="16">
+        <v>43452</v>
+      </c>
+      <c r="C73" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D73" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="F73" s="37"/>
+      <c r="G73" s="36"/>
+    </row>
+    <row r="74" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+      <c r="B74" s="16">
         <v>43473</v>
       </c>
-      <c r="C73" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="D73" s="37" t="s">
-        <v>71</v>
-      </c>
-      <c r="E73" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="F73" s="37"/>
-      <c r="G73" s="38" t="s">
+      <c r="C74" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" s="37" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B74" s="16">
-        <v>43475</v>
-      </c>
-      <c r="C74" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D74" s="37" t="s">
-        <v>68</v>
-      </c>
       <c r="E74" s="37" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="F74" s="37"/>
-      <c r="G74" s="38"/>
+      <c r="G74" s="38" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B75" s="16">
-        <v>43479</v>
+        <v>43475</v>
       </c>
       <c r="C75" s="37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D75" s="37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E75" s="37" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="F75" s="37"/>
       <c r="G75" s="38"/>
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B76" s="16">
-        <v>43482</v>
+        <v>43479</v>
       </c>
       <c r="C76" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D76" s="37" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="E76" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F76" s="37" t="s">
-        <v>70</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="F76" s="37"/>
       <c r="G76" s="38"/>
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B77" s="16">
-        <v>43484</v>
+        <v>43482</v>
       </c>
       <c r="C77" s="37" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D77" s="37" t="s">
-        <v>68</v>
+        <v>20</v>
       </c>
       <c r="E77" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="37"/>
+      <c r="F77" s="37" t="s">
+        <v>72</v>
+      </c>
       <c r="G77" s="38"/>
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B78" s="40" t="s">
-        <v>122</v>
+      <c r="B78" s="16">
+        <v>43484</v>
       </c>
       <c r="C78" s="37" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D78" s="37" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E78" s="37" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="F78" s="37"/>
       <c r="G78" s="38"/>
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B79" s="40">
-        <v>43491</v>
+      <c r="B79" s="40" t="s">
+        <v>124</v>
       </c>
       <c r="C79" s="37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D79" s="37" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="E79" s="37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F79" s="37"/>
       <c r="G79" s="38"/>
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B80" s="40">
-        <v>43492</v>
+        <v>43491</v>
       </c>
       <c r="C80" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D80" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E80" s="37" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="F80" s="37"/>
       <c r="G80" s="38"/>
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B81" s="40">
-        <v>43493</v>
+        <v>43492</v>
       </c>
       <c r="C81" s="37" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D81" s="37" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E81" s="37" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="F81" s="37"/>
       <c r="G81" s="38"/>
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B82" s="16">
-        <v>43500</v>
+      <c r="B82" s="40">
+        <v>43493</v>
       </c>
       <c r="C82" s="37" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D82" s="37" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E82" s="37" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F82" s="37"/>
       <c r="G82" s="38"/>
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B83" s="40">
-        <v>43502</v>
+      <c r="B83" s="16">
+        <v>43500</v>
       </c>
       <c r="C83" s="37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D83" s="37" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E83" s="37" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="F83" s="37"/>
       <c r="G83" s="38"/>
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B84" s="40">
-        <v>43504</v>
+        <v>43502</v>
       </c>
       <c r="C84" s="37" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D84" s="37" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="E84" s="37" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F84" s="37"/>
       <c r="G84" s="38"/>
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B85" s="40">
-        <v>43506</v>
+        <v>43504</v>
       </c>
       <c r="C85" s="37" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D85" s="37" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="E85" s="37" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F85" s="37"/>
       <c r="G85" s="38"/>
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B86" s="40">
-        <v>43509</v>
+        <v>43506</v>
       </c>
       <c r="C86" s="37" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D86" s="37" t="s">
         <v>5</v>
       </c>
       <c r="E86" s="37" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="F86" s="37"/>
       <c r="G86" s="38"/>
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B87" s="40">
-        <v>43511</v>
+        <v>43509</v>
       </c>
       <c r="C87" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
+        <v>78</v>
+      </c>
+      <c r="D87" s="37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E87" s="37" t="s">
+        <v>15</v>
+      </c>
       <c r="F87" s="37"/>
       <c r="G87" s="38"/>
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B88" s="40">
-        <v>43522</v>
+        <v>43511</v>
       </c>
       <c r="C88" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="D88" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="E88" s="37" t="s">
-        <v>60</v>
-      </c>
+      <c r="D88" s="37"/>
+      <c r="E88" s="37"/>
       <c r="F88" s="37"/>
       <c r="G88" s="38"/>
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B89" s="40">
-        <v>43524</v>
+        <v>43522</v>
       </c>
       <c r="C89" s="37" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="D89" s="37" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="E89" s="37" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="F89" s="37"/>
       <c r="G89" s="38"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B90" s="40">
-        <v>43527</v>
+        <v>43524</v>
       </c>
       <c r="C90" s="37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D90" s="37" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E90" s="37" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="F90" s="37"/>
       <c r="G90" s="38"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B91" s="40">
-        <v>43529</v>
+        <v>43527</v>
       </c>
       <c r="C91" s="37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D91" s="37" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="E91" s="37" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="F91" s="37"/>
       <c r="G91" s="38"/>
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B92" s="16">
-        <v>43543</v>
+      <c r="B92" s="40">
+        <v>43529</v>
       </c>
       <c r="C92" s="37" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D92" s="37" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E92" s="37" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="F92" s="37"/>
       <c r="G92" s="38"/>
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B93" s="40">
-        <v>43545</v>
+      <c r="B93" s="16">
+        <v>43543</v>
       </c>
       <c r="C93" s="37" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D93" s="37" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="E93" s="37" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="F93" s="37"/>
       <c r="G93" s="38"/>
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B94" s="40">
-        <v>43547</v>
+        <v>43545</v>
       </c>
       <c r="C94" s="37" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D94" s="37" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E94" s="37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F94" s="37"/>
       <c r="G94" s="38"/>
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B95" s="40">
-        <v>43549</v>
+        <v>43547</v>
       </c>
       <c r="C95" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D95" s="37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E95" s="37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F95" s="37"/>
       <c r="G95" s="38"/>
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B96" s="40">
-        <v>43555</v>
+        <v>43549</v>
       </c>
       <c r="C96" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D96" s="37" t="s">
-        <v>60</v>
+        <v>83</v>
       </c>
       <c r="E96" s="37" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
       <c r="F96" s="37"/>
       <c r="G96" s="38"/>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B97" s="40">
-        <v>43560</v>
+        <v>43555</v>
       </c>
       <c r="C97" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D97" s="37" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E97" s="37" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="F97" s="37"/>
       <c r="G97" s="38"/>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B98" s="40">
-        <v>43562</v>
+        <v>43560</v>
       </c>
       <c r="C98" s="37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D98" s="37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E98" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F98" s="37"/>
       <c r="G98" s="38"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B99" s="40">
-        <v>43564</v>
+        <v>43562</v>
       </c>
       <c r="C99" s="37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D99" s="37" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E99" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F99" s="37"/>
       <c r="G99" s="38"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B100" s="40">
-        <v>43566</v>
+        <v>43564</v>
       </c>
       <c r="C100" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D100" s="37" t="s">
         <v>20</v>
       </c>
       <c r="E100" s="37" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="F100" s="37"/>
       <c r="G100" s="38"/>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B101" s="40">
-        <v>43570</v>
+        <v>43566</v>
       </c>
       <c r="C101" s="37" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D101" s="37" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="E101" s="37" t="s">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="F101" s="37"/>
       <c r="G101" s="38"/>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B102" s="40">
-        <v>43576</v>
+        <v>43570</v>
       </c>
       <c r="C102" s="37" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D102" s="37" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="E102" s="37" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F102" s="37"/>
       <c r="G102" s="38"/>
     </row>
     <row r="103" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B103" s="40">
-        <v>43579</v>
+        <v>43576</v>
       </c>
       <c r="C103" s="37" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D103" s="37" t="s">
-        <v>20</v>
+        <v>53</v>
       </c>
       <c r="E103" s="37" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F103" s="37"/>
       <c r="G103" s="38"/>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B104" s="40">
-        <v>43585</v>
+        <v>43579</v>
       </c>
       <c r="C104" s="37" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D104" s="37" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="E104" s="37" t="s">
-        <v>86</v>
+        <v>40</v>
       </c>
       <c r="F104" s="37"/>
       <c r="G104" s="38"/>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B105" s="16">
-        <v>43588</v>
+      <c r="B105" s="40">
+        <v>43585</v>
       </c>
       <c r="C105" s="37" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D105" s="37" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="E105" s="37" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F105" s="37"/>
       <c r="G105" s="38"/>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B106" s="40">
-        <v>43591</v>
+      <c r="B106" s="16">
+        <v>43588</v>
       </c>
       <c r="C106" s="37" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D106" s="37" t="s">
-        <v>81</v>
+        <v>53</v>
       </c>
       <c r="E106" s="37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F106" s="37"/>
       <c r="G106" s="38"/>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B107" s="40">
-        <v>43595</v>
+        <v>43591</v>
       </c>
       <c r="C107" s="37" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D107" s="37" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
       <c r="E107" s="37" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="F107" s="37"/>
       <c r="G107" s="38"/>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B108" s="40">
-        <v>43602</v>
+        <v>43595</v>
       </c>
       <c r="C108" s="37" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D108" s="37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E108" s="37" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F108" s="37"/>
       <c r="G108" s="38"/>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B109" s="40">
-        <v>43616</v>
+        <v>43602</v>
       </c>
       <c r="C109" s="37" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D109" s="37" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E109" s="37" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="F109" s="37"/>
       <c r="G109" s="38"/>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B110" s="16">
-        <v>43624</v>
+      <c r="B110" s="40">
+        <v>43616</v>
       </c>
       <c r="C110" s="37" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D110" s="37" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="E110" s="37" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="F110" s="37"/>
       <c r="G110" s="38"/>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B111" s="40">
-        <v>43628</v>
+      <c r="B111" s="16">
+        <v>43624</v>
       </c>
       <c r="C111" s="37" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D111" s="37" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="E111" s="37" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F111" s="37"/>
       <c r="G111" s="38"/>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B112" s="40">
-        <v>43631</v>
+        <v>43628</v>
       </c>
       <c r="C112" s="37" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D112" s="37" t="s">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="E112" s="37" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F112" s="37"/>
       <c r="G112" s="38"/>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B113" s="40">
-        <v>43637</v>
+        <v>43631</v>
       </c>
       <c r="C113" s="37" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="D113" s="37" t="s">
         <v>39</v>
       </c>
       <c r="E113" s="37" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="F113" s="37"/>
       <c r="G113" s="38"/>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B114" s="16">
-        <v>43649</v>
+      <c r="B114" s="40">
+        <v>43637</v>
       </c>
       <c r="C114" s="37" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D114" s="37" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="E114" s="37" t="s">
         <v>93</v>
@@ -2789,312 +2794,314 @@
       <c r="G114" s="38"/>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B115" s="40">
-        <v>43654</v>
+      <c r="B115" s="16">
+        <v>43649</v>
       </c>
       <c r="C115" s="37" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D115" s="37" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="E115" s="37" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F115" s="37"/>
       <c r="G115" s="38"/>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B116" s="40">
-        <v>43662</v>
+        <v>43654</v>
       </c>
       <c r="C116" s="37" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="D116" s="37" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="E116" s="37" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F116" s="37"/>
       <c r="G116" s="38"/>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B117" s="40">
-        <v>43665</v>
+        <v>43662</v>
       </c>
       <c r="C117" s="37" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D117" s="37" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="E117" s="37" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F117" s="37"/>
       <c r="G117" s="38"/>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B118" s="40">
-        <v>43669</v>
-      </c>
-      <c r="C118" s="37">
-        <v>1803</v>
+        <v>43665</v>
+      </c>
+      <c r="C118" s="37" t="s">
+        <v>67</v>
       </c>
       <c r="D118" s="37" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="E118" s="37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F118" s="37"/>
       <c r="G118" s="38"/>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B119" s="40">
-        <v>43672</v>
-      </c>
-      <c r="C119" s="37" t="s">
-        <v>64</v>
+        <v>43669</v>
+      </c>
+      <c r="C119" s="37">
+        <v>1803</v>
       </c>
       <c r="D119" s="37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E119" s="37" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="F119" s="37"/>
       <c r="G119" s="38"/>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B120" s="40">
-        <v>43676</v>
+        <v>43672</v>
       </c>
       <c r="C120" s="37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D120" s="37" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E120" s="37" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F120" s="37"/>
       <c r="G120" s="38"/>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B121" s="16">
-        <v>43681</v>
+      <c r="B121" s="40">
+        <v>43676</v>
       </c>
       <c r="C121" s="37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D121" s="37" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E121" s="37" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="F121" s="37"/>
       <c r="G121" s="38"/>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B122" s="40">
-        <v>43683</v>
+      <c r="B122" s="16">
+        <v>43681</v>
       </c>
       <c r="C122" s="37" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D122" s="37" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E122" s="37" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="F122" s="37"/>
       <c r="G122" s="38"/>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B123" s="40">
-        <v>43687</v>
+        <v>43683</v>
       </c>
       <c r="C123" s="37" t="s">
         <v>66</v>
       </c>
       <c r="D123" s="37" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="E123" s="37" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F123" s="37"/>
       <c r="G123" s="38"/>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B124" s="40">
-        <v>43691</v>
+        <v>43687</v>
       </c>
       <c r="C124" s="37" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="D124" s="37" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="E124" s="37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F124" s="37"/>
       <c r="G124" s="38"/>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B125" s="40">
-        <v>43695</v>
+        <v>43691</v>
       </c>
       <c r="C125" s="37" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="D125" s="37" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="E125" s="37" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F125" s="37"/>
       <c r="G125" s="38"/>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B126" s="40">
-        <v>43699</v>
+        <v>43695</v>
       </c>
       <c r="C126" s="37" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="D126" s="37" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E126" s="37" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="F126" s="37"/>
       <c r="G126" s="38"/>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B127" s="40">
-        <v>43702</v>
+        <v>43699</v>
       </c>
       <c r="C127" s="37" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D127" s="37" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E127" s="37" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F127" s="37"/>
       <c r="G127" s="38"/>
     </row>
     <row r="128" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B128" s="40">
-        <v>43705</v>
+        <v>43702</v>
       </c>
       <c r="C128" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D128" s="37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E128" s="37" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F128" s="37"/>
       <c r="G128" s="38"/>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B129" s="16">
-        <v>43711</v>
+      <c r="B129" s="40">
+        <v>43705</v>
       </c>
       <c r="C129" s="37" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D129" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="E129" s="37"/>
+        <v>53</v>
+      </c>
+      <c r="E129" s="37" t="s">
+        <v>107</v>
+      </c>
       <c r="F129" s="37"/>
       <c r="G129" s="38"/>
     </row>
-    <row r="130" spans="2:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="B130" s="40">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B130" s="16">
+        <v>43711</v>
+      </c>
+      <c r="C130" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="D130" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="E130" s="37"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="38"/>
+    </row>
+    <row r="131" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="B131" s="40">
         <v>43714</v>
       </c>
-      <c r="C130" s="37" t="s">
-        <v>78</v>
-      </c>
-      <c r="D130" s="37" t="s">
-        <v>68</v>
-      </c>
-      <c r="E130" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="F130" s="37"/>
-      <c r="G130" s="38" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B131" s="40">
-        <v>43730</v>
-      </c>
       <c r="C131" s="37" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D131" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="E131" s="37"/>
+        <v>70</v>
+      </c>
+      <c r="E131" s="37" t="s">
+        <v>108</v>
+      </c>
       <c r="F131" s="37"/>
-      <c r="G131" s="38"/>
+      <c r="G131" s="38" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="132" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B132" s="40">
-        <v>43733</v>
+        <v>43730</v>
       </c>
       <c r="C132" s="37" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D132" s="37" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="E132" s="37"/>
       <c r="F132" s="37"/>
       <c r="G132" s="38"/>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B133" s="16">
-        <v>43740</v>
+      <c r="B133" s="40">
+        <v>43733</v>
       </c>
       <c r="C133" s="37" t="s">
         <v>79</v>
       </c>
       <c r="D133" s="37" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E133" s="37"/>
       <c r="F133" s="37"/>
       <c r="G133" s="38"/>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B134" s="40">
-        <v>43745</v>
+      <c r="B134" s="16">
+        <v>43740</v>
       </c>
       <c r="C134" s="37" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D134" s="37" t="s">
-        <v>81</v>
+        <v>39</v>
       </c>
       <c r="E134" s="37"/>
       <c r="F134" s="37"/>
@@ -3102,27 +3109,27 @@
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B135" s="40">
-        <v>43749</v>
+        <v>43745</v>
       </c>
       <c r="C135" s="37" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D135" s="37" t="s">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E135" s="37"/>
       <c r="F135" s="37"/>
       <c r="G135" s="38"/>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B136" s="2">
-        <v>43753</v>
+      <c r="B136" s="40">
+        <v>43749</v>
       </c>
       <c r="C136" s="37" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="D136" s="37" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="E136" s="37"/>
       <c r="F136" s="37"/>
@@ -3130,13 +3137,13 @@
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B137" s="2">
-        <v>43757</v>
+        <v>43753</v>
       </c>
       <c r="C137" s="37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D137" s="37" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E137" s="37"/>
       <c r="F137" s="37"/>
@@ -3144,57 +3151,57 @@
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B138" s="2">
-        <v>43760</v>
+        <v>43757</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D138" s="37" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E138" s="37"/>
       <c r="F138" s="37"/>
       <c r="G138" s="38"/>
     </row>
-    <row r="139" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B139" s="2">
-        <v>43773</v>
+        <v>43760</v>
       </c>
       <c r="C139" s="37" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="D139" s="37" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="E139" s="37"/>
       <c r="F139" s="37"/>
-      <c r="G139" s="38" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G139" s="38"/>
+    </row>
+    <row r="140" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B140" s="2">
-        <v>43775</v>
+        <v>43773</v>
       </c>
       <c r="C140" s="37" t="s">
         <v>110</v>
       </c>
       <c r="D140" s="37" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E140" s="37"/>
       <c r="F140" s="37"/>
-      <c r="G140" s="38"/>
+      <c r="G140" s="38" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B141" s="2">
-        <v>43779</v>
+        <v>43775</v>
       </c>
       <c r="C141" s="37" t="s">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="D141" s="37" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="E141" s="37"/>
       <c r="F141" s="37"/>
@@ -3202,13 +3209,13 @@
     </row>
     <row r="142" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B142" s="2">
-        <v>43786</v>
+        <v>43779</v>
       </c>
       <c r="C142" s="37" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="D142" s="37" t="s">
-        <v>114</v>
+        <v>73</v>
       </c>
       <c r="E142" s="37"/>
       <c r="F142" s="37"/>
@@ -3216,13 +3223,13 @@
     </row>
     <row r="143" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B143" s="2">
-        <v>43793</v>
+        <v>43786</v>
       </c>
       <c r="C143" s="37" t="s">
-        <v>77</v>
+        <v>115</v>
       </c>
       <c r="D143" s="37" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="E143" s="37"/>
       <c r="F143" s="37"/>
@@ -3230,13 +3237,13 @@
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B144" s="2">
-        <v>43799</v>
+        <v>43793</v>
       </c>
       <c r="C144" s="37" t="s">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="D144" s="37" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="E144" s="37"/>
       <c r="F144" s="37"/>
@@ -3244,13 +3251,13 @@
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B145" s="2">
-        <v>43806</v>
+        <v>43799</v>
       </c>
       <c r="C145" s="37" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="D145" s="37" t="s">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="E145" s="37"/>
       <c r="F145" s="37"/>
@@ -3258,13 +3265,13 @@
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B146" s="2">
-        <v>43811</v>
+        <v>43806</v>
       </c>
       <c r="C146" s="37" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D146" s="37" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="E146" s="37"/>
       <c r="F146" s="37"/>
@@ -3272,13 +3279,13 @@
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B147" s="2">
-        <v>43814</v>
+        <v>43811</v>
       </c>
       <c r="C147" s="37" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="D147" s="37" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E147" s="37"/>
       <c r="F147" s="37"/>
@@ -3286,13 +3293,13 @@
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B148" s="2">
-        <v>43818</v>
+        <v>43814</v>
       </c>
       <c r="C148" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D148" s="37" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="E148" s="37"/>
       <c r="F148" s="37"/>
@@ -3300,13 +3307,13 @@
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B149" s="2">
-        <v>43829</v>
+        <v>43818</v>
       </c>
       <c r="C149" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D149" s="37" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E149" s="37"/>
       <c r="F149" s="37"/>
@@ -3314,13 +3321,13 @@
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B150" s="2">
-        <v>43841</v>
+        <v>43829</v>
       </c>
       <c r="C150" s="37" t="s">
-        <v>115</v>
+        <v>71</v>
       </c>
       <c r="D150" s="37" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="E150" s="37"/>
       <c r="F150" s="37"/>
@@ -3328,13 +3335,13 @@
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B151" s="2">
-        <v>43843</v>
+        <v>43841</v>
       </c>
       <c r="C151" s="37" t="s">
-        <v>77</v>
+        <v>117</v>
       </c>
       <c r="D151" s="37" t="s">
-        <v>91</v>
+        <v>114</v>
       </c>
       <c r="E151" s="37"/>
       <c r="F151" s="37"/>
@@ -3342,13 +3349,13 @@
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B152" s="2">
-        <v>43849</v>
+        <v>43843</v>
       </c>
       <c r="C152" s="37" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D152" s="37" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
       <c r="E152" s="37"/>
       <c r="F152" s="37"/>
@@ -3356,13 +3363,13 @@
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B153" s="2">
-        <v>43852</v>
+        <v>43849</v>
       </c>
       <c r="C153" s="37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D153" s="37" t="s">
-        <v>86</v>
+        <v>118</v>
       </c>
       <c r="E153" s="37"/>
       <c r="F153" s="37"/>
@@ -3370,57 +3377,57 @@
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B154" s="2">
-        <v>43859</v>
+        <v>43852</v>
       </c>
       <c r="C154" s="37" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D154" s="37" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E154" s="37"/>
       <c r="F154" s="37"/>
       <c r="G154" s="38"/>
     </row>
-    <row r="155" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B155" s="2">
-        <v>43864</v>
+        <v>43859</v>
       </c>
       <c r="C155" s="37" t="s">
-        <v>113</v>
+        <v>77</v>
       </c>
       <c r="D155" s="37" t="s">
-        <v>117</v>
+        <v>82</v>
       </c>
       <c r="E155" s="37"/>
       <c r="F155" s="37"/>
-      <c r="G155" s="38" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G155" s="38"/>
+    </row>
+    <row r="156" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B156" s="2">
-        <v>43867</v>
+        <v>43864</v>
       </c>
       <c r="C156" s="37" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="D156" s="37" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E156" s="37"/>
       <c r="F156" s="37"/>
-      <c r="G156" s="38"/>
+      <c r="G156" s="38" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B157" s="2">
-        <v>43874</v>
+        <v>43867</v>
       </c>
       <c r="C157" s="37" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="D157" s="37" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="E157" s="37"/>
       <c r="F157" s="37"/>
@@ -3428,13 +3435,13 @@
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B158" s="2">
-        <v>43879</v>
+        <v>43874</v>
       </c>
       <c r="C158" s="37" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D158" s="37" t="s">
-        <v>119</v>
+        <v>82</v>
       </c>
       <c r="E158" s="37"/>
       <c r="F158" s="37"/>
@@ -3442,13 +3449,13 @@
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B159" s="2">
-        <v>43886</v>
+        <v>43879</v>
       </c>
       <c r="C159" s="37" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D159" s="37" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E159" s="37"/>
       <c r="F159" s="37"/>
@@ -3456,13 +3463,13 @@
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B160" s="2">
-        <v>43894</v>
+        <v>43886</v>
       </c>
       <c r="C160" s="37" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D160" s="37" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="E160" s="37"/>
       <c r="F160" s="37"/>
@@ -3470,13 +3477,13 @@
     </row>
     <row r="161" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B161" s="2">
-        <v>43900</v>
+        <v>43894</v>
       </c>
       <c r="C161" s="37" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D161" s="37" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="E161" s="37"/>
       <c r="F161" s="37"/>
@@ -3484,13 +3491,13 @@
     </row>
     <row r="162" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B162" s="2">
-        <v>43903</v>
+        <v>43900</v>
       </c>
       <c r="C162" s="37" t="s">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="D162" s="37" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E162" s="37"/>
       <c r="F162" s="37"/>
@@ -3498,13 +3505,13 @@
     </row>
     <row r="163" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B163" s="2">
-        <v>43910</v>
+        <v>43903</v>
       </c>
       <c r="C163" s="37" t="s">
-        <v>77</v>
+        <v>122</v>
       </c>
       <c r="D163" s="37" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="E163" s="37"/>
       <c r="F163" s="37"/>
@@ -3512,13 +3519,13 @@
     </row>
     <row r="164" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B164" s="2">
-        <v>43914</v>
+        <v>43910</v>
       </c>
       <c r="C164" s="37" t="s">
         <v>79</v>
       </c>
       <c r="D164" s="37" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="E164" s="37"/>
       <c r="F164" s="37"/>
@@ -3526,13 +3533,13 @@
     </row>
     <row r="165" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B165" s="2">
-        <v>43920</v>
+        <v>43914</v>
       </c>
       <c r="C165" s="37" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="D165" s="37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E165" s="37"/>
       <c r="F165" s="37"/>
@@ -3540,13 +3547,13 @@
     </row>
     <row r="166" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B166" s="2">
-        <v>43924</v>
+        <v>43920</v>
       </c>
       <c r="C166" s="37" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D166" s="37" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E166" s="37"/>
       <c r="F166" s="37"/>
@@ -3554,13 +3561,13 @@
     </row>
     <row r="167" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B167" s="2">
-        <v>43927</v>
+        <v>43924</v>
       </c>
       <c r="C167" s="37" t="s">
         <v>69</v>
       </c>
       <c r="D167" s="37" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="E167" s="37"/>
       <c r="F167" s="37"/>
@@ -3568,13 +3575,13 @@
     </row>
     <row r="168" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B168" s="2">
-        <v>43931</v>
+        <v>43927</v>
       </c>
       <c r="C168" s="37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D168" s="37" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E168" s="37"/>
       <c r="F168" s="37"/>
@@ -3582,13 +3589,13 @@
     </row>
     <row r="169" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B169" s="2">
-        <v>43938</v>
+        <v>43931</v>
       </c>
       <c r="C169" s="37" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D169" s="37" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="E169" s="37"/>
       <c r="F169" s="37"/>
@@ -3596,13 +3603,13 @@
     </row>
     <row r="170" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B170" s="2">
-        <v>43941</v>
+        <v>43938</v>
       </c>
       <c r="C170" s="37" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D170" s="37" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E170" s="37"/>
       <c r="F170" s="37"/>
@@ -3610,13 +3617,13 @@
     </row>
     <row r="171" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B171" s="2">
-        <v>43947</v>
+        <v>43941</v>
       </c>
       <c r="C171" s="37" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D171" s="37" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E171" s="37"/>
       <c r="F171" s="37"/>
@@ -3624,10 +3631,10 @@
     </row>
     <row r="172" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B172" s="2">
-        <v>43953</v>
+        <v>43947</v>
       </c>
       <c r="C172" s="37" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D172" s="37" t="s">
         <v>20</v>
@@ -3638,13 +3645,13 @@
     </row>
     <row r="173" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B173" s="2">
-        <v>43957</v>
+        <v>43953</v>
       </c>
       <c r="C173" s="37" t="s">
         <v>64</v>
       </c>
       <c r="D173" s="37" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E173" s="37"/>
       <c r="F173" s="37"/>
@@ -3652,13 +3659,13 @@
     </row>
     <row r="174" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B174" s="2">
-        <v>43963</v>
+        <v>43957</v>
       </c>
       <c r="C174" s="37" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="D174" s="37" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="E174" s="37"/>
       <c r="F174" s="37"/>
@@ -3666,13 +3673,13 @@
     </row>
     <row r="175" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B175" s="2">
-        <v>43967</v>
+        <v>43963</v>
       </c>
       <c r="C175" s="37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D175" s="37" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E175" s="37"/>
       <c r="F175" s="37"/>
@@ -3680,13 +3687,13 @@
     </row>
     <row r="176" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B176" s="2">
-        <v>43971</v>
+        <v>43967</v>
       </c>
       <c r="C176" s="37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D176" s="37" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="E176" s="37"/>
       <c r="F176" s="37"/>
@@ -3694,57 +3701,57 @@
     </row>
     <row r="177" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B177" s="2">
-        <v>43973</v>
+        <v>43971</v>
       </c>
       <c r="C177" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D177" s="37" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="E177" s="37"/>
       <c r="F177" s="37"/>
       <c r="G177" s="38"/>
     </row>
-    <row r="178" spans="2:7" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B178" s="2">
-        <v>43974</v>
+        <v>43973</v>
       </c>
       <c r="C178" s="37" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D178" s="37" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E178" s="37"/>
       <c r="F178" s="37"/>
-      <c r="G178" s="38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G178" s="38"/>
+    </row>
+    <row r="179" spans="2:7" ht="16" x14ac:dyDescent="0.2">
       <c r="B179" s="2">
-        <v>43981</v>
+        <v>43974</v>
       </c>
       <c r="C179" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D179" s="37" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E179" s="37"/>
       <c r="F179" s="37"/>
-      <c r="G179" s="38"/>
+      <c r="G179" s="38" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="180" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B180" s="2">
-        <v>43986</v>
+        <v>43981</v>
       </c>
       <c r="C180" s="37" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D180" s="37" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="E180" s="37"/>
       <c r="F180" s="37"/>
@@ -3752,43 +3759,43 @@
     </row>
     <row r="181" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B181" s="2">
-        <v>43991</v>
+        <v>43986</v>
       </c>
       <c r="C181" s="37" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="D181" s="37" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="E181" s="37"/>
-      <c r="F181" s="37" t="s">
-        <v>13</v>
-      </c>
+      <c r="F181" s="37"/>
       <c r="G181" s="38"/>
     </row>
     <row r="182" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B182" s="2">
-        <v>43992</v>
+        <v>43991</v>
       </c>
       <c r="C182" s="37" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D182" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E182" s="37"/>
-      <c r="F182" s="37"/>
+      <c r="F182" s="37" t="s">
+        <v>13</v>
+      </c>
       <c r="G182" s="38"/>
     </row>
     <row r="183" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B183" s="2">
-        <v>43995</v>
+        <v>43992</v>
       </c>
       <c r="C183" s="37" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D183" s="37" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E183" s="37"/>
       <c r="F183" s="37"/>
@@ -3796,27 +3803,27 @@
     </row>
     <row r="184" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B184" s="2">
-        <v>43998</v>
+        <v>43995</v>
       </c>
       <c r="C184" s="37" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D184" s="37" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E184" s="37"/>
       <c r="F184" s="37"/>
-      <c r="G184" s="39"/>
+      <c r="G184" s="38"/>
     </row>
     <row r="185" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B185" s="2">
-        <v>44000</v>
+        <v>43998</v>
       </c>
       <c r="C185" s="37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D185" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E185" s="37"/>
       <c r="F185" s="37"/>
@@ -3824,66 +3831,68 @@
     </row>
     <row r="186" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B186" s="2">
-        <v>44003</v>
+        <v>44000</v>
       </c>
       <c r="C186" s="37" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="D186" s="37" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E186" s="37"/>
       <c r="F186" s="37"/>
       <c r="G186" s="39"/>
     </row>
-    <row r="187" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B187" s="2">
-        <v>44005</v>
+        <v>44003</v>
       </c>
       <c r="C187" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D187" s="37" t="s">
         <v>62</v>
-      </c>
-      <c r="D187" s="37" t="s">
-        <v>19</v>
       </c>
       <c r="E187" s="37"/>
       <c r="F187" s="37"/>
-      <c r="G187" s="39" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G187" s="39"/>
+    </row>
+    <row r="188" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B188" s="2">
-        <v>44024</v>
+        <v>44005</v>
       </c>
       <c r="C188" s="37" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D188" s="37" t="s">
         <v>19</v>
       </c>
       <c r="E188" s="37"/>
       <c r="F188" s="37"/>
-      <c r="G188" s="39"/>
+      <c r="G188" s="39" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="189" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B189" s="2">
-        <v>44025</v>
+        <v>44024</v>
       </c>
       <c r="C189" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="D189" s="37"/>
+        <v>59</v>
+      </c>
+      <c r="D189" s="37" t="s">
+        <v>19</v>
+      </c>
       <c r="E189" s="37"/>
       <c r="F189" s="37"/>
       <c r="G189" s="39"/>
     </row>
     <row r="190" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B190" s="2">
-        <v>44026</v>
+        <v>44025</v>
       </c>
       <c r="C190" s="37" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D190" s="37"/>
       <c r="E190" s="37"/>
@@ -3892,27 +3901,25 @@
     </row>
     <row r="191" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B191" s="2">
-        <v>44027</v>
+        <v>44026</v>
       </c>
       <c r="C191" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D191" s="37" t="s">
-        <v>20</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="D191" s="37"/>
       <c r="E191" s="37"/>
       <c r="F191" s="37"/>
       <c r="G191" s="39"/>
     </row>
     <row r="192" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B192" s="2">
-        <v>44029</v>
+        <v>44027</v>
       </c>
       <c r="C192" s="37" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D192" s="37" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E192" s="37"/>
       <c r="F192" s="37"/>
@@ -3920,65 +3927,65 @@
     </row>
     <row r="193" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B193" s="2">
-        <v>44030</v>
+        <v>44029</v>
       </c>
       <c r="C193" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="D193" s="37"/>
+        <v>64</v>
+      </c>
+      <c r="D193" s="37" t="s">
+        <v>9</v>
+      </c>
       <c r="E193" s="37"/>
       <c r="F193" s="37"/>
       <c r="G193" s="39"/>
     </row>
     <row r="194" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B194" s="2">
-        <v>44032</v>
+        <v>44030</v>
       </c>
       <c r="C194" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D194" s="37" t="s">
-        <v>60</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D194" s="37"/>
       <c r="E194" s="37"/>
       <c r="F194" s="37"/>
       <c r="G194" s="39"/>
     </row>
     <row r="195" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B195" s="2">
-        <v>44035</v>
+        <v>44032</v>
       </c>
       <c r="C195" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D195" s="37"/>
+        <v>57</v>
+      </c>
+      <c r="D195" s="37" t="s">
+        <v>62</v>
+      </c>
       <c r="E195" s="37"/>
       <c r="F195" s="37"/>
       <c r="G195" s="39"/>
     </row>
     <row r="196" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B196" s="2">
-        <v>44036</v>
+        <v>44035</v>
       </c>
       <c r="C196" s="37" t="s">
-        <v>52</v>
-      </c>
-      <c r="D196" s="37" t="s">
-        <v>39</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="D196" s="37"/>
       <c r="E196" s="37"/>
       <c r="F196" s="37"/>
       <c r="G196" s="39"/>
     </row>
     <row r="197" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B197" s="2">
-        <v>44039</v>
+        <v>44036</v>
       </c>
       <c r="C197" s="37" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D197" s="37" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="E197" s="37"/>
       <c r="F197" s="37"/>
@@ -3986,10 +3993,10 @@
     </row>
     <row r="198" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B198" s="2">
-        <v>44041</v>
+        <v>44039</v>
       </c>
       <c r="C198" s="37" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D198" s="37" t="s">
         <v>19</v>
@@ -4000,13 +4007,13 @@
     </row>
     <row r="199" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B199" s="2">
-        <v>44043</v>
+        <v>44041</v>
       </c>
       <c r="C199" s="37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D199" s="37" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E199" s="37"/>
       <c r="F199" s="37"/>
@@ -4014,43 +4021,43 @@
     </row>
     <row r="200" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B200" s="2">
-        <v>44045</v>
+        <v>44043</v>
       </c>
       <c r="C200" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D200" s="37" t="s">
-        <v>5</v>
+        <v>62</v>
       </c>
       <c r="E200" s="37"/>
-      <c r="F200" s="37" t="s">
-        <v>13</v>
-      </c>
+      <c r="F200" s="37"/>
       <c r="G200" s="39"/>
     </row>
     <row r="201" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B201" s="2">
-        <v>44046</v>
+        <v>44045</v>
       </c>
       <c r="C201" s="37" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D201" s="37" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="E201" s="37"/>
-      <c r="F201" s="37"/>
+      <c r="F201" s="37" t="s">
+        <v>13</v>
+      </c>
       <c r="G201" s="39"/>
     </row>
     <row r="202" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B202" s="2">
-        <v>44047</v>
+        <v>44046</v>
       </c>
       <c r="C202" s="37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D202" s="37" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="E202" s="37"/>
       <c r="F202" s="37"/>
@@ -4058,63 +4065,80 @@
     </row>
     <row r="203" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B203" s="2">
-        <v>44049</v>
+        <v>44047</v>
       </c>
       <c r="C203" s="37" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D203" s="37" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="E203" s="37"/>
       <c r="F203" s="37"/>
       <c r="G203" s="39"/>
     </row>
-    <row r="204" spans="2:7" ht="48" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B204" s="2">
-        <v>44050</v>
+        <v>44049</v>
       </c>
       <c r="C204" s="37" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D204" s="37" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="E204" s="37"/>
       <c r="F204" s="37"/>
-      <c r="G204" s="39" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G204" s="39"/>
+    </row>
+    <row r="205" spans="2:7" ht="48" x14ac:dyDescent="0.2">
       <c r="B205" s="2">
-        <v>44075</v>
+        <v>44050</v>
       </c>
       <c r="C205" s="37" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D205" s="37" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="E205" s="37"/>
       <c r="F205" s="37"/>
-      <c r="G205" s="39"/>
+      <c r="G205" s="39" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="206" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B206" s="2">
-        <v>44081</v>
+        <v>44075</v>
       </c>
       <c r="C206" s="37" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D206" s="37" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="E206" s="37"/>
       <c r="F206" s="37"/>
       <c r="G206" s="39"/>
     </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B207" s="2">
+        <v>44081</v>
+      </c>
+      <c r="C207" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="D207" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="E207" s="37"/>
+      <c r="F207" s="37"/>
+      <c r="G207" s="39"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
